--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1591,7 +1591,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
   <si>
     <t>id</t>
   </si>
@@ -1597,7 +1597,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -2015,6 +2018,11 @@
         <v>529</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -28,16 +28,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>Ã…land Islands</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
   </si>
   <si>
     <t>AL</t>
@@ -85,7 +85,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -199,7 +199,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -248,12 +248,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -352,6 +346,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -367,7 +367,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -607,7 +607,7 @@
     <t>HM</t>
   </si>
   <si>
-    <t>Heard Island and McDonald Islands</t>
+    <t>Heard Island &amp; McDonald Islands</t>
   </si>
   <si>
     <t>VA</t>
@@ -1111,7 +1111,7 @@
     <t>RE</t>
   </si>
   <si>
-    <t>RÃ©union</t>
+    <t>Reunion</t>
   </si>
   <si>
     <t>RO</t>
@@ -1135,13 +1135,13 @@
     <t>BL</t>
   </si>
   <si>
-    <t>Saint BarthÃ©lemy</t>
+    <t>Saint Barthelemy</t>
   </si>
   <si>
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -1165,13 +1165,13 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Saint Pierre and Miquelon</t>
+    <t>Saint Pierre &amp; Miquelon</t>
   </si>
   <si>
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1189,7 +1189,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1267,7 +1267,7 @@
     <t>GS</t>
   </si>
   <si>
-    <t>South Georgia and the South Sandwich Islands</t>
+    <t>South Georgia &amp; the South Sandwich Islands</t>
   </si>
   <si>
     <t>KR</t>
@@ -1309,7 +1309,7 @@
     <t>SJ</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
+    <t>Svalbard &amp; Jan Mayen</t>
   </si>
   <si>
     <t>SZ</t>
@@ -1387,7 +1387,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1411,7 +1411,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1432,16 +1432,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UM</t>
@@ -1501,7 +1501,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>EH</t>
@@ -1606,7 +1606,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2061,9 @@
       <c r="C2" t="n">
         <v>2000</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>0.616683645</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2073,7 +2075,9 @@
       <c r="C3" t="n">
         <v>2001</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>0.619190867</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2085,7 +2089,9 @@
       <c r="C4" t="n">
         <v>2002</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.61524018</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2097,7 +2103,9 @@
       <c r="C5" t="n">
         <v>2003</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0.581948104</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2109,7 +2117,9 @@
       <c r="C6" t="n">
         <v>2004</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>0.57882935</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2121,7 +2131,9 @@
       <c r="C7" t="n">
         <v>2005</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>0.588451058</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2133,7 +2145,9 @@
       <c r="C8" t="n">
         <v>2006</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>0.599600096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2145,7 +2159,9 @@
       <c r="C9" t="n">
         <v>2007</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>0.591606724</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2157,7 +2173,9 @@
       <c r="C10" t="n">
         <v>2008</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.599389427</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2169,7 +2187,9 @@
       <c r="C11" t="n">
         <v>2009</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>0.596142904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2181,7 +2201,9 @@
       <c r="C12" t="n">
         <v>2010</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="n">
+        <v>0.594968419</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2193,7 +2215,9 @@
       <c r="C13" t="n">
         <v>2011</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="n">
+        <v>0.581904872</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2205,7 +2229,9 @@
       <c r="C14" t="n">
         <v>2012</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="n">
+        <v>0.580760907</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2217,7 +2243,9 @@
       <c r="C15" t="n">
         <v>2013</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>0.579599962</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2229,9 +2257,7 @@
       <c r="C16" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.616683645</v>
-      </c>
+      <c r="D16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2243,9 +2269,7 @@
       <c r="C17" t="n">
         <v>2001</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.619190867</v>
-      </c>
+      <c r="D17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2257,9 +2281,7 @@
       <c r="C18" t="n">
         <v>2002</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.61524018</v>
-      </c>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2271,9 +2293,7 @@
       <c r="C19" t="n">
         <v>2003</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.581948104</v>
-      </c>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2285,9 +2305,7 @@
       <c r="C20" t="n">
         <v>2004</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.57882935</v>
-      </c>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2299,9 +2317,7 @@
       <c r="C21" t="n">
         <v>2005</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.588451058</v>
-      </c>
+      <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2313,9 +2329,7 @@
       <c r="C22" t="n">
         <v>2006</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.599600096</v>
-      </c>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2327,9 +2341,7 @@
       <c r="C23" t="n">
         <v>2007</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.591606724</v>
-      </c>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2341,9 +2353,7 @@
       <c r="C24" t="n">
         <v>2008</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.599389427</v>
-      </c>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2355,9 +2365,7 @@
       <c r="C25" t="n">
         <v>2009</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.596142904</v>
-      </c>
+      <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2369,9 +2377,7 @@
       <c r="C26" t="n">
         <v>2010</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.594968419</v>
-      </c>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2383,9 +2389,7 @@
       <c r="C27" t="n">
         <v>2011</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.581904872</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2397,9 +2401,7 @@
       <c r="C28" t="n">
         <v>2012</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.580760907</v>
-      </c>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2411,9 +2413,7 @@
       <c r="C29" t="n">
         <v>2013</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.579599962</v>
-      </c>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -9034,7 +9034,7 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>0.48023087</v>
+        <v>0.509380161</v>
       </c>
     </row>
     <row r="521">
@@ -9048,7 +9048,7 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>0.48116894</v>
+        <v>0.509574943</v>
       </c>
     </row>
     <row r="522">
@@ -9062,7 +9062,7 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>0.484334381</v>
+        <v>0.505740466</v>
       </c>
     </row>
     <row r="523">
@@ -9076,7 +9076,7 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>0.482957272</v>
+        <v>0.505721441</v>
       </c>
     </row>
     <row r="524">
@@ -9090,7 +9090,7 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>0.478164377</v>
+        <v>0.504654451</v>
       </c>
     </row>
     <row r="525">
@@ -9104,7 +9104,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>0.47964897</v>
+        <v>0.505623218</v>
       </c>
     </row>
     <row r="526">
@@ -9118,7 +9118,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>0.480433392</v>
+        <v>0.508958087</v>
       </c>
     </row>
     <row r="527">
@@ -9132,7 +9132,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>0.490522825</v>
+        <v>0.507479621</v>
       </c>
     </row>
     <row r="528">
@@ -9146,7 +9146,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>0.491964654</v>
+        <v>0.501230154</v>
       </c>
     </row>
     <row r="529">
@@ -9160,7 +9160,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>0.495355181</v>
+        <v>0.497641271</v>
       </c>
     </row>
     <row r="530">
@@ -9174,7 +9174,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>0.491695198</v>
+        <v>0.494771473</v>
       </c>
     </row>
     <row r="531">
@@ -9188,7 +9188,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>0.489232922</v>
+        <v>0.489038472</v>
       </c>
     </row>
     <row r="532">
@@ -9202,7 +9202,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>0.48647317</v>
+        <v>0.486392521</v>
       </c>
     </row>
     <row r="533">
@@ -9216,7 +9216,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>0.486123816</v>
+        <v>0.486277904</v>
       </c>
     </row>
     <row r="534">
@@ -9230,7 +9230,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>0.509380161</v>
+        <v>0.4521448</v>
       </c>
     </row>
     <row r="535">
@@ -9244,7 +9244,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>0.509574943</v>
+        <v>0.452397462</v>
       </c>
     </row>
     <row r="536">
@@ -9258,7 +9258,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>0.505740466</v>
+        <v>0.45049315</v>
       </c>
     </row>
     <row r="537">
@@ -9272,7 +9272,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>0.505721441</v>
+        <v>0.446863808</v>
       </c>
     </row>
     <row r="538">
@@ -9286,7 +9286,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>0.504654451</v>
+        <v>0.442742975</v>
       </c>
     </row>
     <row r="539">
@@ -9300,7 +9300,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>0.505623218</v>
+        <v>0.442003585</v>
       </c>
     </row>
     <row r="540">
@@ -9314,7 +9314,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>0.508958087</v>
+        <v>0.440907539</v>
       </c>
     </row>
     <row r="541">
@@ -9328,7 +9328,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>0.507479621</v>
+        <v>0.43950452</v>
       </c>
     </row>
     <row r="542">
@@ -9342,7 +9342,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>0.501230154</v>
+        <v>0.439707908</v>
       </c>
     </row>
     <row r="543">
@@ -9356,7 +9356,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>0.497641271</v>
+        <v>0.437742597</v>
       </c>
     </row>
     <row r="544">
@@ -9370,7 +9370,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>0.494771473</v>
+        <v>0.435863582</v>
       </c>
     </row>
     <row r="545">
@@ -9384,7 +9384,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>0.489038472</v>
+        <v>0.429597119</v>
       </c>
     </row>
     <row r="546">
@@ -9398,7 +9398,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>0.486392521</v>
+        <v>0.432793864</v>
       </c>
     </row>
     <row r="547">
@@ -9412,7 +9412,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>0.486277904</v>
+        <v>0.432490644</v>
       </c>
     </row>
     <row r="548">
@@ -9426,7 +9426,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4521448</v>
+        <v>0.201977509</v>
       </c>
     </row>
     <row r="549">
@@ -9440,7 +9440,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>0.452397462</v>
+        <v>0.20317755</v>
       </c>
     </row>
     <row r="550">
@@ -9454,7 +9454,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>0.45049315</v>
+        <v>0.20332899</v>
       </c>
     </row>
     <row r="551">
@@ -9468,7 +9468,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>0.446863808</v>
+        <v>0.201214875</v>
       </c>
     </row>
     <row r="552">
@@ -9482,7 +9482,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>0.442742975</v>
+        <v>0.199452927</v>
       </c>
     </row>
     <row r="553">
@@ -9496,7 +9496,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>0.442003585</v>
+        <v>0.19921</v>
       </c>
     </row>
     <row r="554">
@@ -9510,7 +9510,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>0.440907539</v>
+        <v>0.199866006</v>
       </c>
     </row>
     <row r="555">
@@ -9524,7 +9524,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>0.43950452</v>
+        <v>0.199230918</v>
       </c>
     </row>
     <row r="556">
@@ -9538,7 +9538,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>0.439707908</v>
+        <v>0.1999098</v>
       </c>
     </row>
     <row r="557">
@@ -9552,7 +9552,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>0.437742597</v>
+        <v>0.199740995</v>
       </c>
     </row>
     <row r="558">
@@ -9566,7 +9566,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>0.435863582</v>
+        <v>0.199317912</v>
       </c>
     </row>
     <row r="559">
@@ -9580,7 +9580,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>0.429597119</v>
+        <v>0.199437162</v>
       </c>
     </row>
     <row r="560">
@@ -9594,7 +9594,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>0.432793864</v>
+        <v>0.19977539</v>
       </c>
     </row>
     <row r="561">
@@ -9608,7 +9608,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>0.432490644</v>
+        <v>0.200282877</v>
       </c>
     </row>
     <row r="562">
@@ -9622,7 +9622,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>0.201977509</v>
+        <v>0.437941468</v>
       </c>
     </row>
     <row r="563">
@@ -9636,7 +9636,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>0.20317755</v>
+        <v>0.43794905</v>
       </c>
     </row>
     <row r="564">
@@ -9650,7 +9650,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>0.20332899</v>
+        <v>0.436702075</v>
       </c>
     </row>
     <row r="565">
@@ -9664,7 +9664,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>0.201214875</v>
+        <v>0.433154235</v>
       </c>
     </row>
     <row r="566">
@@ -9678,7 +9678,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>0.199452927</v>
+        <v>0.439379881</v>
       </c>
     </row>
     <row r="567">
@@ -9692,7 +9692,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>0.19921</v>
+        <v>0.428744348</v>
       </c>
     </row>
     <row r="568">
@@ -9706,7 +9706,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>0.199866006</v>
+        <v>0.430003563</v>
       </c>
     </row>
     <row r="569">
@@ -9720,7 +9720,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>0.199230918</v>
+        <v>0.425786196</v>
       </c>
     </row>
     <row r="570">
@@ -9734,7 +9734,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>0.1999098</v>
+        <v>0.408515741</v>
       </c>
     </row>
     <row r="571">
@@ -9748,7 +9748,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>0.199740995</v>
+        <v>0.40325727</v>
       </c>
     </row>
     <row r="572">
@@ -9762,7 +9762,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>0.199317912</v>
+        <v>0.408123227</v>
       </c>
     </row>
     <row r="573">
@@ -9776,7 +9776,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>0.199437162</v>
+        <v>0.412352732</v>
       </c>
     </row>
     <row r="574">
@@ -9790,7 +9790,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>0.19977539</v>
+        <v>0.42366444</v>
       </c>
     </row>
     <row r="575">
@@ -9804,7 +9804,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>0.200282877</v>
+        <v>0.4219414</v>
       </c>
     </row>
     <row r="576">
@@ -9818,7 +9818,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>0.437941468</v>
+        <v>0.516741799</v>
       </c>
     </row>
     <row r="577">
@@ -9832,7 +9832,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>0.43794905</v>
+        <v>0.5112565</v>
       </c>
     </row>
     <row r="578">
@@ -9846,7 +9846,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>0.436702075</v>
+        <v>0.512634028</v>
       </c>
     </row>
     <row r="579">
@@ -9860,7 +9860,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>0.433154235</v>
+        <v>0.517595692</v>
       </c>
     </row>
     <row r="580">
@@ -9874,7 +9874,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>0.439379881</v>
+        <v>0.509821675</v>
       </c>
     </row>
     <row r="581">
@@ -9888,7 +9888,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>0.428744348</v>
+        <v>0.525929282</v>
       </c>
     </row>
     <row r="582">
@@ -9902,7 +9902,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>0.430003563</v>
+        <v>0.524050083</v>
       </c>
     </row>
     <row r="583">
@@ -9916,7 +9916,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>0.425786196</v>
+        <v>0.523389097</v>
       </c>
     </row>
     <row r="584">
@@ -9930,7 +9930,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>0.408515741</v>
+        <v>0.513824444</v>
       </c>
     </row>
     <row r="585">
@@ -9944,7 +9944,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>0.40325727</v>
+        <v>0.524878911</v>
       </c>
     </row>
     <row r="586">
@@ -9958,7 +9958,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>0.408123227</v>
+        <v>0.516756028</v>
       </c>
     </row>
     <row r="587">
@@ -9972,7 +9972,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>0.412352732</v>
+        <v>0.520269512</v>
       </c>
     </row>
     <row r="588">
@@ -9986,7 +9986,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>0.42366444</v>
+        <v>0.519025615</v>
       </c>
     </row>
     <row r="589">
@@ -10000,7 +10000,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>0.4219414</v>
+        <v>0.518509766</v>
       </c>
     </row>
     <row r="590">
@@ -10013,9 +10013,7 @@
       <c r="C590" t="n">
         <v>2000</v>
       </c>
-      <c r="D590" t="n">
-        <v>0.516741799</v>
-      </c>
+      <c r="D590"/>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -10027,9 +10025,7 @@
       <c r="C591" t="n">
         <v>2001</v>
       </c>
-      <c r="D591" t="n">
-        <v>0.5112565</v>
-      </c>
+      <c r="D591"/>
     </row>
     <row r="592">
       <c r="A592" t="s">
@@ -10041,9 +10037,7 @@
       <c r="C592" t="n">
         <v>2002</v>
       </c>
-      <c r="D592" t="n">
-        <v>0.512634028</v>
-      </c>
+      <c r="D592"/>
     </row>
     <row r="593">
       <c r="A593" t="s">
@@ -10055,9 +10049,7 @@
       <c r="C593" t="n">
         <v>2003</v>
       </c>
-      <c r="D593" t="n">
-        <v>0.517595692</v>
-      </c>
+      <c r="D593"/>
     </row>
     <row r="594">
       <c r="A594" t="s">
@@ -10069,9 +10061,7 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594" t="n">
-        <v>0.509821675</v>
-      </c>
+      <c r="D594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -10083,9 +10073,7 @@
       <c r="C595" t="n">
         <v>2005</v>
       </c>
-      <c r="D595" t="n">
-        <v>0.525929282</v>
-      </c>
+      <c r="D595"/>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -10097,9 +10085,7 @@
       <c r="C596" t="n">
         <v>2006</v>
       </c>
-      <c r="D596" t="n">
-        <v>0.524050083</v>
-      </c>
+      <c r="D596"/>
     </row>
     <row r="597">
       <c r="A597" t="s">
@@ -10111,9 +10097,7 @@
       <c r="C597" t="n">
         <v>2007</v>
       </c>
-      <c r="D597" t="n">
-        <v>0.523389097</v>
-      </c>
+      <c r="D597"/>
     </row>
     <row r="598">
       <c r="A598" t="s">
@@ -10125,9 +10109,7 @@
       <c r="C598" t="n">
         <v>2008</v>
       </c>
-      <c r="D598" t="n">
-        <v>0.513824444</v>
-      </c>
+      <c r="D598"/>
     </row>
     <row r="599">
       <c r="A599" t="s">
@@ -10139,9 +10121,7 @@
       <c r="C599" t="n">
         <v>2009</v>
       </c>
-      <c r="D599" t="n">
-        <v>0.524878911</v>
-      </c>
+      <c r="D599"/>
     </row>
     <row r="600">
       <c r="A600" t="s">
@@ -10153,9 +10133,7 @@
       <c r="C600" t="n">
         <v>2010</v>
       </c>
-      <c r="D600" t="n">
-        <v>0.516756028</v>
-      </c>
+      <c r="D600"/>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -10167,9 +10145,7 @@
       <c r="C601" t="n">
         <v>2011</v>
       </c>
-      <c r="D601" t="n">
-        <v>0.520269512</v>
-      </c>
+      <c r="D601"/>
     </row>
     <row r="602">
       <c r="A602" t="s">
@@ -10181,9 +10157,7 @@
       <c r="C602" t="n">
         <v>2012</v>
       </c>
-      <c r="D602" t="n">
-        <v>0.519025615</v>
-      </c>
+      <c r="D602"/>
     </row>
     <row r="603">
       <c r="A603" t="s">
@@ -10195,9 +10169,7 @@
       <c r="C603" t="n">
         <v>2013</v>
       </c>
-      <c r="D603" t="n">
-        <v>0.518509766</v>
-      </c>
+      <c r="D603"/>
     </row>
     <row r="604">
       <c r="A604" t="s">
@@ -10209,7 +10181,9 @@
       <c r="C604" t="n">
         <v>2000</v>
       </c>
-      <c r="D604"/>
+      <c r="D604" t="n">
+        <v>0.62410632</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -10221,7 +10195,9 @@
       <c r="C605" t="n">
         <v>2001</v>
       </c>
-      <c r="D605"/>
+      <c r="D605" t="n">
+        <v>0.624663452</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -10233,7 +10209,9 @@
       <c r="C606" t="n">
         <v>2002</v>
       </c>
-      <c r="D606"/>
+      <c r="D606" t="n">
+        <v>0.611677012</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -10245,7 +10223,9 @@
       <c r="C607" t="n">
         <v>2003</v>
       </c>
-      <c r="D607"/>
+      <c r="D607" t="n">
+        <v>0.6203916</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -10257,7 +10237,9 @@
       <c r="C608" t="n">
         <v>2004</v>
       </c>
-      <c r="D608"/>
+      <c r="D608" t="n">
+        <v>0.609899266</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -10269,7 +10251,9 @@
       <c r="C609" t="n">
         <v>2005</v>
       </c>
-      <c r="D609"/>
+      <c r="D609" t="n">
+        <v>0.606239311</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
@@ -10281,7 +10265,9 @@
       <c r="C610" t="n">
         <v>2006</v>
       </c>
-      <c r="D610"/>
+      <c r="D610" t="n">
+        <v>0.610706797</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -10293,7 +10279,9 @@
       <c r="C611" t="n">
         <v>2007</v>
       </c>
-      <c r="D611"/>
+      <c r="D611" t="n">
+        <v>0.603013706</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
@@ -10305,7 +10293,9 @@
       <c r="C612" t="n">
         <v>2008</v>
       </c>
-      <c r="D612"/>
+      <c r="D612" t="n">
+        <v>0.600080181</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -10317,7 +10307,9 @@
       <c r="C613" t="n">
         <v>2009</v>
       </c>
-      <c r="D613"/>
+      <c r="D613" t="n">
+        <v>0.601579395</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -10329,7 +10321,9 @@
       <c r="C614" t="n">
         <v>2010</v>
       </c>
-      <c r="D614"/>
+      <c r="D614" t="n">
+        <v>0.598312632</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -10341,7 +10335,9 @@
       <c r="C615" t="n">
         <v>2011</v>
       </c>
-      <c r="D615"/>
+      <c r="D615" t="n">
+        <v>0.612167984</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -10353,7 +10349,9 @@
       <c r="C616" t="n">
         <v>2012</v>
       </c>
-      <c r="D616"/>
+      <c r="D616" t="n">
+        <v>0.605053688</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -10365,7 +10363,9 @@
       <c r="C617" t="n">
         <v>2013</v>
       </c>
-      <c r="D617"/>
+      <c r="D617" t="n">
+        <v>0.604823997</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
@@ -10378,7 +10378,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>0.62410632</v>
+        <v>0.295275969</v>
       </c>
     </row>
     <row r="619">
@@ -10392,7 +10392,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>0.624663452</v>
+        <v>0.289901948</v>
       </c>
     </row>
     <row r="620">
@@ -10406,7 +10406,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>0.611677012</v>
+        <v>0.289695013</v>
       </c>
     </row>
     <row r="621">
@@ -10420,7 +10420,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>0.6203916</v>
+        <v>0.286243464</v>
       </c>
     </row>
     <row r="622">
@@ -10434,7 +10434,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>0.609899266</v>
+        <v>0.289408665</v>
       </c>
     </row>
     <row r="623">
@@ -10448,7 +10448,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>0.606239311</v>
+        <v>0.282418124</v>
       </c>
     </row>
     <row r="624">
@@ -10462,7 +10462,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>0.610706797</v>
+        <v>0.286813701</v>
       </c>
     </row>
     <row r="625">
@@ -10476,7 +10476,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>0.603013706</v>
+        <v>0.287609758</v>
       </c>
     </row>
     <row r="626">
@@ -10490,7 +10490,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>0.600080181</v>
+        <v>0.284970704</v>
       </c>
     </row>
     <row r="627">
@@ -10504,7 +10504,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>0.601579395</v>
+        <v>0.282698683</v>
       </c>
     </row>
     <row r="628">
@@ -10518,7 +10518,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>0.598312632</v>
+        <v>0.283384701</v>
       </c>
     </row>
     <row r="629">
@@ -10532,7 +10532,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>0.612167984</v>
+        <v>0.275718496</v>
       </c>
     </row>
     <row r="630">
@@ -10546,7 +10546,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>0.605053688</v>
+        <v>0.273938356</v>
       </c>
     </row>
     <row r="631">
@@ -10560,7 +10560,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>0.604823997</v>
+        <v>0.273850165</v>
       </c>
     </row>
     <row r="632">
@@ -10574,7 +10574,7 @@
         <v>2000</v>
       </c>
       <c r="D632" t="n">
-        <v>0.295275969</v>
+        <v>0.319072901</v>
       </c>
     </row>
     <row r="633">
@@ -10588,7 +10588,7 @@
         <v>2001</v>
       </c>
       <c r="D633" t="n">
-        <v>0.289901948</v>
+        <v>0.316456505</v>
       </c>
     </row>
     <row r="634">
@@ -10602,7 +10602,7 @@
         <v>2002</v>
       </c>
       <c r="D634" t="n">
-        <v>0.289695013</v>
+        <v>0.311772385</v>
       </c>
     </row>
     <row r="635">
@@ -10616,7 +10616,7 @@
         <v>2003</v>
       </c>
       <c r="D635" t="n">
-        <v>0.286243464</v>
+        <v>0.315422992</v>
       </c>
     </row>
     <row r="636">
@@ -10630,7 +10630,7 @@
         <v>2004</v>
       </c>
       <c r="D636" t="n">
-        <v>0.289408665</v>
+        <v>0.312159507</v>
       </c>
     </row>
     <row r="637">
@@ -10644,7 +10644,7 @@
         <v>2005</v>
       </c>
       <c r="D637" t="n">
-        <v>0.282418124</v>
+        <v>0.307150247</v>
       </c>
     </row>
     <row r="638">
@@ -10658,7 +10658,7 @@
         <v>2006</v>
       </c>
       <c r="D638" t="n">
-        <v>0.286813701</v>
+        <v>0.302609005</v>
       </c>
     </row>
     <row r="639">
@@ -10672,7 +10672,7 @@
         <v>2007</v>
       </c>
       <c r="D639" t="n">
-        <v>0.287609758</v>
+        <v>0.298840136</v>
       </c>
     </row>
     <row r="640">
@@ -10686,7 +10686,7 @@
         <v>2008</v>
       </c>
       <c r="D640" t="n">
-        <v>0.284970704</v>
+        <v>0.294703952</v>
       </c>
     </row>
     <row r="641">
@@ -10700,7 +10700,7 @@
         <v>2009</v>
       </c>
       <c r="D641" t="n">
-        <v>0.282698683</v>
+        <v>0.290938946</v>
       </c>
     </row>
     <row r="642">
@@ -10714,7 +10714,7 @@
         <v>2010</v>
       </c>
       <c r="D642" t="n">
-        <v>0.283384701</v>
+        <v>0.286070645</v>
       </c>
     </row>
     <row r="643">
@@ -10728,7 +10728,7 @@
         <v>2011</v>
       </c>
       <c r="D643" t="n">
-        <v>0.275718496</v>
+        <v>0.284084251</v>
       </c>
     </row>
     <row r="644">
@@ -10742,7 +10742,7 @@
         <v>2012</v>
       </c>
       <c r="D644" t="n">
-        <v>0.273938356</v>
+        <v>0.282619176</v>
       </c>
     </row>
     <row r="645">
@@ -10756,7 +10756,7 @@
         <v>2013</v>
       </c>
       <c r="D645" t="n">
-        <v>0.273850165</v>
+        <v>0.282265065</v>
       </c>
     </row>
     <row r="646">
@@ -10769,9 +10769,7 @@
       <c r="C646" t="n">
         <v>2000</v>
       </c>
-      <c r="D646" t="n">
-        <v>0.319072901</v>
-      </c>
+      <c r="D646"/>
     </row>
     <row r="647">
       <c r="A647" t="s">
@@ -10783,9 +10781,7 @@
       <c r="C647" t="n">
         <v>2001</v>
       </c>
-      <c r="D647" t="n">
-        <v>0.316456505</v>
-      </c>
+      <c r="D647"/>
     </row>
     <row r="648">
       <c r="A648" t="s">
@@ -10797,9 +10793,7 @@
       <c r="C648" t="n">
         <v>2002</v>
       </c>
-      <c r="D648" t="n">
-        <v>0.311772385</v>
-      </c>
+      <c r="D648"/>
     </row>
     <row r="649">
       <c r="A649" t="s">
@@ -10811,9 +10805,7 @@
       <c r="C649" t="n">
         <v>2003</v>
       </c>
-      <c r="D649" t="n">
-        <v>0.315422992</v>
-      </c>
+      <c r="D649"/>
     </row>
     <row r="650">
       <c r="A650" t="s">
@@ -10825,9 +10817,7 @@
       <c r="C650" t="n">
         <v>2004</v>
       </c>
-      <c r="D650" t="n">
-        <v>0.312159507</v>
-      </c>
+      <c r="D650"/>
     </row>
     <row r="651">
       <c r="A651" t="s">
@@ -10839,9 +10829,7 @@
       <c r="C651" t="n">
         <v>2005</v>
       </c>
-      <c r="D651" t="n">
-        <v>0.307150247</v>
-      </c>
+      <c r="D651"/>
     </row>
     <row r="652">
       <c r="A652" t="s">
@@ -10853,9 +10841,7 @@
       <c r="C652" t="n">
         <v>2006</v>
       </c>
-      <c r="D652" t="n">
-        <v>0.302609005</v>
-      </c>
+      <c r="D652"/>
     </row>
     <row r="653">
       <c r="A653" t="s">
@@ -10867,9 +10853,7 @@
       <c r="C653" t="n">
         <v>2007</v>
       </c>
-      <c r="D653" t="n">
-        <v>0.298840136</v>
-      </c>
+      <c r="D653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
@@ -10881,9 +10865,7 @@
       <c r="C654" t="n">
         <v>2008</v>
       </c>
-      <c r="D654" t="n">
-        <v>0.294703952</v>
-      </c>
+      <c r="D654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -10895,9 +10877,7 @@
       <c r="C655" t="n">
         <v>2009</v>
       </c>
-      <c r="D655" t="n">
-        <v>0.290938946</v>
-      </c>
+      <c r="D655"/>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -10909,9 +10889,7 @@
       <c r="C656" t="n">
         <v>2010</v>
       </c>
-      <c r="D656" t="n">
-        <v>0.286070645</v>
-      </c>
+      <c r="D656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
@@ -10923,9 +10901,7 @@
       <c r="C657" t="n">
         <v>2011</v>
       </c>
-      <c r="D657" t="n">
-        <v>0.284084251</v>
-      </c>
+      <c r="D657"/>
     </row>
     <row r="658">
       <c r="A658" t="s">
@@ -10937,9 +10913,7 @@
       <c r="C658" t="n">
         <v>2012</v>
       </c>
-      <c r="D658" t="n">
-        <v>0.282619176</v>
-      </c>
+      <c r="D658"/>
     </row>
     <row r="659">
       <c r="A659" t="s">
@@ -10951,9 +10925,7 @@
       <c r="C659" t="n">
         <v>2013</v>
       </c>
-      <c r="D659" t="n">
-        <v>0.282265065</v>
-      </c>
+      <c r="D659"/>
     </row>
     <row r="660">
       <c r="A660" t="s">
@@ -11133,7 +11105,9 @@
       <c r="C674" t="n">
         <v>2000</v>
       </c>
-      <c r="D674"/>
+      <c r="D674" t="n">
+        <v>0.331119835</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
@@ -11145,7 +11119,9 @@
       <c r="C675" t="n">
         <v>2001</v>
       </c>
-      <c r="D675"/>
+      <c r="D675" t="n">
+        <v>0.330253582</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
@@ -11157,7 +11133,9 @@
       <c r="C676" t="n">
         <v>2002</v>
       </c>
-      <c r="D676"/>
+      <c r="D676" t="n">
+        <v>0.328652571</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
@@ -11169,7 +11147,9 @@
       <c r="C677" t="n">
         <v>2003</v>
       </c>
-      <c r="D677"/>
+      <c r="D677" t="n">
+        <v>0.327137558</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
@@ -11181,7 +11161,9 @@
       <c r="C678" t="n">
         <v>2004</v>
       </c>
-      <c r="D678"/>
+      <c r="D678" t="n">
+        <v>0.32555675</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
@@ -11193,7 +11175,9 @@
       <c r="C679" t="n">
         <v>2005</v>
       </c>
-      <c r="D679"/>
+      <c r="D679" t="n">
+        <v>0.320893364</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
@@ -11205,7 +11189,9 @@
       <c r="C680" t="n">
         <v>2006</v>
       </c>
-      <c r="D680"/>
+      <c r="D680" t="n">
+        <v>0.320183629</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
@@ -11217,7 +11203,9 @@
       <c r="C681" t="n">
         <v>2007</v>
       </c>
-      <c r="D681"/>
+      <c r="D681" t="n">
+        <v>0.318744489</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
@@ -11229,7 +11217,9 @@
       <c r="C682" t="n">
         <v>2008</v>
       </c>
-      <c r="D682"/>
+      <c r="D682" t="n">
+        <v>0.31695707</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
@@ -11241,7 +11231,9 @@
       <c r="C683" t="n">
         <v>2009</v>
       </c>
-      <c r="D683"/>
+      <c r="D683" t="n">
+        <v>0.313646857</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
@@ -11253,7 +11245,9 @@
       <c r="C684" t="n">
         <v>2010</v>
       </c>
-      <c r="D684"/>
+      <c r="D684" t="n">
+        <v>0.313401319</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
@@ -11265,7 +11259,9 @@
       <c r="C685" t="n">
         <v>2011</v>
       </c>
-      <c r="D685"/>
+      <c r="D685" t="n">
+        <v>0.310211473</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
@@ -11277,7 +11273,9 @@
       <c r="C686" t="n">
         <v>2012</v>
       </c>
-      <c r="D686"/>
+      <c r="D686" t="n">
+        <v>0.309640013</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
@@ -11289,7 +11287,9 @@
       <c r="C687" t="n">
         <v>2013</v>
       </c>
-      <c r="D687"/>
+      <c r="D687" t="n">
+        <v>0.309395718</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
@@ -11302,7 +11302,7 @@
         <v>2000</v>
       </c>
       <c r="D688" t="n">
-        <v>0.331119835</v>
+        <v>0.464456665</v>
       </c>
     </row>
     <row r="689">
@@ -11316,7 +11316,7 @@
         <v>2001</v>
       </c>
       <c r="D689" t="n">
-        <v>0.330253582</v>
+        <v>0.460776198</v>
       </c>
     </row>
     <row r="690">
@@ -11330,7 +11330,7 @@
         <v>2002</v>
       </c>
       <c r="D690" t="n">
-        <v>0.328652571</v>
+        <v>0.466157145</v>
       </c>
     </row>
     <row r="691">
@@ -11344,7 +11344,7 @@
         <v>2003</v>
       </c>
       <c r="D691" t="n">
-        <v>0.327137558</v>
+        <v>0.467792496</v>
       </c>
     </row>
     <row r="692">
@@ -11358,7 +11358,7 @@
         <v>2004</v>
       </c>
       <c r="D692" t="n">
-        <v>0.32555675</v>
+        <v>0.466260672</v>
       </c>
     </row>
     <row r="693">
@@ -11372,7 +11372,7 @@
         <v>2005</v>
       </c>
       <c r="D693" t="n">
-        <v>0.320893364</v>
+        <v>0.458527193</v>
       </c>
     </row>
     <row r="694">
@@ -11386,7 +11386,7 @@
         <v>2006</v>
       </c>
       <c r="D694" t="n">
-        <v>0.320183629</v>
+        <v>0.446265681</v>
       </c>
     </row>
     <row r="695">
@@ -11400,7 +11400,7 @@
         <v>2007</v>
       </c>
       <c r="D695" t="n">
-        <v>0.318744489</v>
+        <v>0.441766606</v>
       </c>
     </row>
     <row r="696">
@@ -11414,7 +11414,7 @@
         <v>2008</v>
       </c>
       <c r="D696" t="n">
-        <v>0.31695707</v>
+        <v>0.442120033</v>
       </c>
     </row>
     <row r="697">
@@ -11428,7 +11428,7 @@
         <v>2009</v>
       </c>
       <c r="D697" t="n">
-        <v>0.313646857</v>
+        <v>0.448350883</v>
       </c>
     </row>
     <row r="698">
@@ -11442,7 +11442,7 @@
         <v>2010</v>
       </c>
       <c r="D698" t="n">
-        <v>0.313401319</v>
+        <v>0.464368328</v>
       </c>
     </row>
     <row r="699">
@@ -11456,7 +11456,7 @@
         <v>2011</v>
       </c>
       <c r="D699" t="n">
-        <v>0.310211473</v>
+        <v>0.469517135</v>
       </c>
     </row>
     <row r="700">
@@ -11470,7 +11470,7 @@
         <v>2012</v>
       </c>
       <c r="D700" t="n">
-        <v>0.309640013</v>
+        <v>0.466673615</v>
       </c>
     </row>
     <row r="701">
@@ -11484,7 +11484,7 @@
         <v>2013</v>
       </c>
       <c r="D701" t="n">
-        <v>0.309395718</v>
+        <v>0.466497689</v>
       </c>
     </row>
     <row r="702">
@@ -11498,7 +11498,7 @@
         <v>2000</v>
       </c>
       <c r="D702" t="n">
-        <v>0.464456665</v>
+        <v>0.516343667</v>
       </c>
     </row>
     <row r="703">
@@ -11512,7 +11512,7 @@
         <v>2001</v>
       </c>
       <c r="D703" t="n">
-        <v>0.460776198</v>
+        <v>0.516150078</v>
       </c>
     </row>
     <row r="704">
@@ -11526,7 +11526,7 @@
         <v>2002</v>
       </c>
       <c r="D704" t="n">
-        <v>0.466157145</v>
+        <v>0.516333842</v>
       </c>
     </row>
     <row r="705">
@@ -11540,7 +11540,7 @@
         <v>2003</v>
       </c>
       <c r="D705" t="n">
-        <v>0.467792496</v>
+        <v>0.516243571</v>
       </c>
     </row>
     <row r="706">
@@ -11554,7 +11554,7 @@
         <v>2004</v>
       </c>
       <c r="D706" t="n">
-        <v>0.466260672</v>
+        <v>0.517056655</v>
       </c>
     </row>
     <row r="707">
@@ -11568,7 +11568,7 @@
         <v>2005</v>
       </c>
       <c r="D707" t="n">
-        <v>0.458527193</v>
+        <v>0.510795255</v>
       </c>
     </row>
     <row r="708">
@@ -11582,7 +11582,7 @@
         <v>2006</v>
       </c>
       <c r="D708" t="n">
-        <v>0.446265681</v>
+        <v>0.513525798</v>
       </c>
     </row>
     <row r="709">
@@ -11596,7 +11596,7 @@
         <v>2007</v>
       </c>
       <c r="D709" t="n">
-        <v>0.441766606</v>
+        <v>0.511125859</v>
       </c>
     </row>
     <row r="710">
@@ -11610,7 +11610,7 @@
         <v>2008</v>
       </c>
       <c r="D710" t="n">
-        <v>0.442120033</v>
+        <v>0.499086161</v>
       </c>
     </row>
     <row r="711">
@@ -11624,7 +11624,7 @@
         <v>2009</v>
       </c>
       <c r="D711" t="n">
-        <v>0.448350883</v>
+        <v>0.512967715</v>
       </c>
     </row>
     <row r="712">
@@ -11638,7 +11638,7 @@
         <v>2010</v>
       </c>
       <c r="D712" t="n">
-        <v>0.464368328</v>
+        <v>0.503911878</v>
       </c>
     </row>
     <row r="713">
@@ -11652,7 +11652,7 @@
         <v>2011</v>
       </c>
       <c r="D713" t="n">
-        <v>0.469517135</v>
+        <v>0.51674408</v>
       </c>
     </row>
     <row r="714">
@@ -11666,7 +11666,7 @@
         <v>2012</v>
       </c>
       <c r="D714" t="n">
-        <v>0.466673615</v>
+        <v>0.513923667</v>
       </c>
     </row>
     <row r="715">
@@ -11680,7 +11680,7 @@
         <v>2013</v>
       </c>
       <c r="D715" t="n">
-        <v>0.466497689</v>
+        <v>0.514021193</v>
       </c>
     </row>
     <row r="716">
@@ -11693,9 +11693,7 @@
       <c r="C716" t="n">
         <v>2000</v>
       </c>
-      <c r="D716" t="n">
-        <v>0.516343667</v>
-      </c>
+      <c r="D716"/>
     </row>
     <row r="717">
       <c r="A717" t="s">
@@ -11707,9 +11705,7 @@
       <c r="C717" t="n">
         <v>2001</v>
       </c>
-      <c r="D717" t="n">
-        <v>0.516150078</v>
-      </c>
+      <c r="D717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
@@ -11721,9 +11717,7 @@
       <c r="C718" t="n">
         <v>2002</v>
       </c>
-      <c r="D718" t="n">
-        <v>0.516333842</v>
-      </c>
+      <c r="D718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
@@ -11735,9 +11729,7 @@
       <c r="C719" t="n">
         <v>2003</v>
       </c>
-      <c r="D719" t="n">
-        <v>0.516243571</v>
-      </c>
+      <c r="D719"/>
     </row>
     <row r="720">
       <c r="A720" t="s">
@@ -11749,9 +11741,7 @@
       <c r="C720" t="n">
         <v>2004</v>
       </c>
-      <c r="D720" t="n">
-        <v>0.517056655</v>
-      </c>
+      <c r="D720"/>
     </row>
     <row r="721">
       <c r="A721" t="s">
@@ -11763,9 +11753,7 @@
       <c r="C721" t="n">
         <v>2005</v>
       </c>
-      <c r="D721" t="n">
-        <v>0.510795255</v>
-      </c>
+      <c r="D721"/>
     </row>
     <row r="722">
       <c r="A722" t="s">
@@ -11777,9 +11765,7 @@
       <c r="C722" t="n">
         <v>2006</v>
       </c>
-      <c r="D722" t="n">
-        <v>0.513525798</v>
-      </c>
+      <c r="D722"/>
     </row>
     <row r="723">
       <c r="A723" t="s">
@@ -11791,9 +11777,7 @@
       <c r="C723" t="n">
         <v>2007</v>
       </c>
-      <c r="D723" t="n">
-        <v>0.511125859</v>
-      </c>
+      <c r="D723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
@@ -11805,9 +11789,7 @@
       <c r="C724" t="n">
         <v>2008</v>
       </c>
-      <c r="D724" t="n">
-        <v>0.499086161</v>
-      </c>
+      <c r="D724"/>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -11819,9 +11801,7 @@
       <c r="C725" t="n">
         <v>2009</v>
       </c>
-      <c r="D725" t="n">
-        <v>0.512967715</v>
-      </c>
+      <c r="D725"/>
     </row>
     <row r="726">
       <c r="A726" t="s">
@@ -11833,9 +11813,7 @@
       <c r="C726" t="n">
         <v>2010</v>
       </c>
-      <c r="D726" t="n">
-        <v>0.503911878</v>
-      </c>
+      <c r="D726"/>
     </row>
     <row r="727">
       <c r="A727" t="s">
@@ -11847,9 +11825,7 @@
       <c r="C727" t="n">
         <v>2011</v>
       </c>
-      <c r="D727" t="n">
-        <v>0.51674408</v>
-      </c>
+      <c r="D727"/>
     </row>
     <row r="728">
       <c r="A728" t="s">
@@ -11861,9 +11837,7 @@
       <c r="C728" t="n">
         <v>2012</v>
       </c>
-      <c r="D728" t="n">
-        <v>0.513923667</v>
-      </c>
+      <c r="D728"/>
     </row>
     <row r="729">
       <c r="A729" t="s">
@@ -11875,9 +11849,7 @@
       <c r="C729" t="n">
         <v>2013</v>
       </c>
-      <c r="D729" t="n">
-        <v>0.514021193</v>
-      </c>
+      <c r="D729"/>
     </row>
     <row r="730">
       <c r="A730" t="s">
@@ -11889,7 +11861,9 @@
       <c r="C730" t="n">
         <v>2000</v>
       </c>
-      <c r="D730"/>
+      <c r="D730" t="n">
+        <v>0.363840768</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
@@ -11901,7 +11875,9 @@
       <c r="C731" t="n">
         <v>2001</v>
       </c>
-      <c r="D731"/>
+      <c r="D731" t="n">
+        <v>0.362206214</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
@@ -11913,7 +11889,9 @@
       <c r="C732" t="n">
         <v>2002</v>
       </c>
-      <c r="D732"/>
+      <c r="D732" t="n">
+        <v>0.360949743</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
@@ -11925,7 +11903,9 @@
       <c r="C733" t="n">
         <v>2003</v>
       </c>
-      <c r="D733"/>
+      <c r="D733" t="n">
+        <v>0.355191678</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
@@ -11937,7 +11917,9 @@
       <c r="C734" t="n">
         <v>2004</v>
       </c>
-      <c r="D734"/>
+      <c r="D734" t="n">
+        <v>0.353892466</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
@@ -11949,7 +11931,9 @@
       <c r="C735" t="n">
         <v>2005</v>
       </c>
-      <c r="D735"/>
+      <c r="D735" t="n">
+        <v>0.343966308</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
@@ -11961,7 +11945,9 @@
       <c r="C736" t="n">
         <v>2006</v>
       </c>
-      <c r="D736"/>
+      <c r="D736" t="n">
+        <v>0.348839886</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
@@ -11973,7 +11959,9 @@
       <c r="C737" t="n">
         <v>2007</v>
       </c>
-      <c r="D737"/>
+      <c r="D737" t="n">
+        <v>0.348333218</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
@@ -11985,7 +11973,9 @@
       <c r="C738" t="n">
         <v>2008</v>
       </c>
-      <c r="D738"/>
+      <c r="D738" t="n">
+        <v>0.348057908</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
@@ -11997,7 +11987,9 @@
       <c r="C739" t="n">
         <v>2009</v>
       </c>
-      <c r="D739"/>
+      <c r="D739" t="n">
+        <v>0.344974454</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
@@ -12009,7 +12001,9 @@
       <c r="C740" t="n">
         <v>2010</v>
       </c>
-      <c r="D740"/>
+      <c r="D740" t="n">
+        <v>0.34610297</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
@@ -12021,7 +12015,9 @@
       <c r="C741" t="n">
         <v>2011</v>
       </c>
-      <c r="D741"/>
+      <c r="D741" t="n">
+        <v>0.342003608</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -12033,7 +12029,9 @@
       <c r="C742" t="n">
         <v>2012</v>
       </c>
-      <c r="D742"/>
+      <c r="D742" t="n">
+        <v>0.340658889</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -12045,7 +12043,9 @@
       <c r="C743" t="n">
         <v>2013</v>
       </c>
-      <c r="D743"/>
+      <c r="D743" t="n">
+        <v>0.340596807</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
@@ -12058,7 +12058,7 @@
         <v>2000</v>
       </c>
       <c r="D744" t="n">
-        <v>0.363840768</v>
+        <v>0.48023087</v>
       </c>
     </row>
     <row r="745">
@@ -12072,7 +12072,7 @@
         <v>2001</v>
       </c>
       <c r="D745" t="n">
-        <v>0.362206214</v>
+        <v>0.48116894</v>
       </c>
     </row>
     <row r="746">
@@ -12086,7 +12086,7 @@
         <v>2002</v>
       </c>
       <c r="D746" t="n">
-        <v>0.360949743</v>
+        <v>0.484334381</v>
       </c>
     </row>
     <row r="747">
@@ -12100,7 +12100,7 @@
         <v>2003</v>
       </c>
       <c r="D747" t="n">
-        <v>0.355191678</v>
+        <v>0.482957272</v>
       </c>
     </row>
     <row r="748">
@@ -12114,7 +12114,7 @@
         <v>2004</v>
       </c>
       <c r="D748" t="n">
-        <v>0.353892466</v>
+        <v>0.478164377</v>
       </c>
     </row>
     <row r="749">
@@ -12128,7 +12128,7 @@
         <v>2005</v>
       </c>
       <c r="D749" t="n">
-        <v>0.343966308</v>
+        <v>0.47964897</v>
       </c>
     </row>
     <row r="750">
@@ -12142,7 +12142,7 @@
         <v>2006</v>
       </c>
       <c r="D750" t="n">
-        <v>0.348839886</v>
+        <v>0.480433392</v>
       </c>
     </row>
     <row r="751">
@@ -12156,7 +12156,7 @@
         <v>2007</v>
       </c>
       <c r="D751" t="n">
-        <v>0.348333218</v>
+        <v>0.490522825</v>
       </c>
     </row>
     <row r="752">
@@ -12170,7 +12170,7 @@
         <v>2008</v>
       </c>
       <c r="D752" t="n">
-        <v>0.348057908</v>
+        <v>0.491964654</v>
       </c>
     </row>
     <row r="753">
@@ -12184,7 +12184,7 @@
         <v>2009</v>
       </c>
       <c r="D753" t="n">
-        <v>0.344974454</v>
+        <v>0.495355181</v>
       </c>
     </row>
     <row r="754">
@@ -12198,7 +12198,7 @@
         <v>2010</v>
       </c>
       <c r="D754" t="n">
-        <v>0.34610297</v>
+        <v>0.491695198</v>
       </c>
     </row>
     <row r="755">
@@ -12212,7 +12212,7 @@
         <v>2011</v>
       </c>
       <c r="D755" t="n">
-        <v>0.342003608</v>
+        <v>0.489232922</v>
       </c>
     </row>
     <row r="756">
@@ -12226,7 +12226,7 @@
         <v>2012</v>
       </c>
       <c r="D756" t="n">
-        <v>0.340658889</v>
+        <v>0.48647317</v>
       </c>
     </row>
     <row r="757">
@@ -12240,7 +12240,7 @@
         <v>2013</v>
       </c>
       <c r="D757" t="n">
-        <v>0.340596807</v>
+        <v>0.486123816</v>
       </c>
     </row>
     <row r="758">
@@ -46106,7 +46106,7 @@
         <v>2000</v>
       </c>
       <c r="D3278" t="n">
-        <v>0.35465985</v>
+        <v>0.196023441</v>
       </c>
     </row>
     <row r="3279">
@@ -46120,7 +46120,7 @@
         <v>2001</v>
       </c>
       <c r="D3279" t="n">
-        <v>0.342286138</v>
+        <v>0.200650072</v>
       </c>
     </row>
     <row r="3280">
@@ -46134,7 +46134,7 @@
         <v>2002</v>
       </c>
       <c r="D3280" t="n">
-        <v>0.33097132</v>
+        <v>0.204600399</v>
       </c>
     </row>
     <row r="3281">
@@ -46148,7 +46148,7 @@
         <v>2003</v>
       </c>
       <c r="D3281" t="n">
-        <v>0.334643338</v>
+        <v>0.208888921</v>
       </c>
     </row>
     <row r="3282">
@@ -46162,7 +46162,7 @@
         <v>2004</v>
       </c>
       <c r="D3282" t="n">
-        <v>0.32882783</v>
+        <v>0.204834</v>
       </c>
     </row>
     <row r="3283">
@@ -46176,7 +46176,7 @@
         <v>2005</v>
       </c>
       <c r="D3283" t="n">
-        <v>0.325734391</v>
+        <v>0.203959352</v>
       </c>
     </row>
     <row r="3284">
@@ -46190,7 +46190,7 @@
         <v>2006</v>
       </c>
       <c r="D3284" t="n">
-        <v>0.32388902</v>
+        <v>0.203344406</v>
       </c>
     </row>
     <row r="3285">
@@ -46204,7 +46204,7 @@
         <v>2007</v>
       </c>
       <c r="D3285" t="n">
-        <v>0.323946912</v>
+        <v>0.20077969</v>
       </c>
     </row>
     <row r="3286">
@@ -46218,7 +46218,7 @@
         <v>2008</v>
       </c>
       <c r="D3286" t="n">
-        <v>0.321250113</v>
+        <v>0.200287936</v>
       </c>
     </row>
     <row r="3287">
@@ -46232,7 +46232,7 @@
         <v>2009</v>
       </c>
       <c r="D3287" t="n">
-        <v>0.318258515</v>
+        <v>0.195632421</v>
       </c>
     </row>
     <row r="3288">
@@ -46246,7 +46246,7 @@
         <v>2010</v>
       </c>
       <c r="D3288" t="n">
-        <v>0.321147779</v>
+        <v>0.196589017</v>
       </c>
     </row>
     <row r="3289">
@@ -46260,7 +46260,7 @@
         <v>2011</v>
       </c>
       <c r="D3289" t="n">
-        <v>0.322337911</v>
+        <v>0.199161944</v>
       </c>
     </row>
     <row r="3290">
@@ -46274,7 +46274,7 @@
         <v>2012</v>
       </c>
       <c r="D3290" t="n">
-        <v>0.31827604</v>
+        <v>0.203062672</v>
       </c>
     </row>
     <row r="3291">
@@ -46288,7 +46288,7 @@
         <v>2013</v>
       </c>
       <c r="D3291" t="n">
-        <v>0.318220763</v>
+        <v>0.203492819</v>
       </c>
     </row>
     <row r="3292">
@@ -46302,7 +46302,7 @@
         <v>2000</v>
       </c>
       <c r="D3292" t="n">
-        <v>0.196023441</v>
+        <v>0.35465985</v>
       </c>
     </row>
     <row r="3293">
@@ -46316,7 +46316,7 @@
         <v>2001</v>
       </c>
       <c r="D3293" t="n">
-        <v>0.200650072</v>
+        <v>0.342286138</v>
       </c>
     </row>
     <row r="3294">
@@ -46330,7 +46330,7 @@
         <v>2002</v>
       </c>
       <c r="D3294" t="n">
-        <v>0.204600399</v>
+        <v>0.33097132</v>
       </c>
     </row>
     <row r="3295">
@@ -46344,7 +46344,7 @@
         <v>2003</v>
       </c>
       <c r="D3295" t="n">
-        <v>0.208888921</v>
+        <v>0.334643338</v>
       </c>
     </row>
     <row r="3296">
@@ -46358,7 +46358,7 @@
         <v>2004</v>
       </c>
       <c r="D3296" t="n">
-        <v>0.204834</v>
+        <v>0.32882783</v>
       </c>
     </row>
     <row r="3297">
@@ -46372,7 +46372,7 @@
         <v>2005</v>
       </c>
       <c r="D3297" t="n">
-        <v>0.203959352</v>
+        <v>0.325734391</v>
       </c>
     </row>
     <row r="3298">
@@ -46386,7 +46386,7 @@
         <v>2006</v>
       </c>
       <c r="D3298" t="n">
-        <v>0.203344406</v>
+        <v>0.32388902</v>
       </c>
     </row>
     <row r="3299">
@@ -46400,7 +46400,7 @@
         <v>2007</v>
       </c>
       <c r="D3299" t="n">
-        <v>0.20077969</v>
+        <v>0.323946912</v>
       </c>
     </row>
     <row r="3300">
@@ -46414,7 +46414,7 @@
         <v>2008</v>
       </c>
       <c r="D3300" t="n">
-        <v>0.200287936</v>
+        <v>0.321250113</v>
       </c>
     </row>
     <row r="3301">
@@ -46428,7 +46428,7 @@
         <v>2009</v>
       </c>
       <c r="D3301" t="n">
-        <v>0.195632421</v>
+        <v>0.318258515</v>
       </c>
     </row>
     <row r="3302">
@@ -46442,7 +46442,7 @@
         <v>2010</v>
       </c>
       <c r="D3302" t="n">
-        <v>0.196589017</v>
+        <v>0.321147779</v>
       </c>
     </row>
     <row r="3303">
@@ -46456,7 +46456,7 @@
         <v>2011</v>
       </c>
       <c r="D3303" t="n">
-        <v>0.199161944</v>
+        <v>0.322337911</v>
       </c>
     </row>
     <row r="3304">
@@ -46470,7 +46470,7 @@
         <v>2012</v>
       </c>
       <c r="D3304" t="n">
-        <v>0.203062672</v>
+        <v>0.31827604</v>
       </c>
     </row>
     <row r="3305">
@@ -46484,7 +46484,7 @@
         <v>2013</v>
       </c>
       <c r="D3305" t="n">
-        <v>0.203492819</v>
+        <v>0.318220763</v>
       </c>
     </row>
     <row r="3306">
@@ -49162,20 +49162,48 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="C2" t="n">
+        <v>0.616683645</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.619190867</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.61524018</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.581948104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.57882935</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.588451058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.599600096</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.591606724</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.599389427</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.596142904</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.594968419</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.581904872</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.580760907</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.579599962</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -49184,48 +49212,20 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.616683645</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.619190867</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.61524018</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.581948104</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.57882935</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.588451058</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.599600096</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.591606724</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.599389427</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.596142904</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.594968419</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.581904872</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.580760907</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.579599962</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -50733,46 +50733,46 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>0.48023087</v>
+        <v>0.509380161</v>
       </c>
       <c r="D39" t="n">
-        <v>0.48116894</v>
+        <v>0.509574943</v>
       </c>
       <c r="E39" t="n">
-        <v>0.484334381</v>
+        <v>0.505740466</v>
       </c>
       <c r="F39" t="n">
-        <v>0.482957272</v>
+        <v>0.505721441</v>
       </c>
       <c r="G39" t="n">
-        <v>0.478164377</v>
+        <v>0.504654451</v>
       </c>
       <c r="H39" t="n">
-        <v>0.47964897</v>
+        <v>0.505623218</v>
       </c>
       <c r="I39" t="n">
-        <v>0.480433392</v>
+        <v>0.508958087</v>
       </c>
       <c r="J39" t="n">
-        <v>0.490522825</v>
+        <v>0.507479621</v>
       </c>
       <c r="K39" t="n">
-        <v>0.491964654</v>
+        <v>0.501230154</v>
       </c>
       <c r="L39" t="n">
-        <v>0.495355181</v>
+        <v>0.497641271</v>
       </c>
       <c r="M39" t="n">
-        <v>0.491695198</v>
+        <v>0.494771473</v>
       </c>
       <c r="N39" t="n">
-        <v>0.489232922</v>
+        <v>0.489038472</v>
       </c>
       <c r="O39" t="n">
-        <v>0.48647317</v>
+        <v>0.486392521</v>
       </c>
       <c r="P39" t="n">
-        <v>0.486123816</v>
+        <v>0.486277904</v>
       </c>
     </row>
     <row r="40">
@@ -50783,46 +50783,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>0.509380161</v>
+        <v>0.4521448</v>
       </c>
       <c r="D40" t="n">
-        <v>0.509574943</v>
+        <v>0.452397462</v>
       </c>
       <c r="E40" t="n">
-        <v>0.505740466</v>
+        <v>0.45049315</v>
       </c>
       <c r="F40" t="n">
-        <v>0.505721441</v>
+        <v>0.446863808</v>
       </c>
       <c r="G40" t="n">
-        <v>0.504654451</v>
+        <v>0.442742975</v>
       </c>
       <c r="H40" t="n">
-        <v>0.505623218</v>
+        <v>0.442003585</v>
       </c>
       <c r="I40" t="n">
-        <v>0.508958087</v>
+        <v>0.440907539</v>
       </c>
       <c r="J40" t="n">
-        <v>0.507479621</v>
+        <v>0.43950452</v>
       </c>
       <c r="K40" t="n">
-        <v>0.501230154</v>
+        <v>0.439707908</v>
       </c>
       <c r="L40" t="n">
-        <v>0.497641271</v>
+        <v>0.437742597</v>
       </c>
       <c r="M40" t="n">
-        <v>0.494771473</v>
+        <v>0.435863582</v>
       </c>
       <c r="N40" t="n">
-        <v>0.489038472</v>
+        <v>0.429597119</v>
       </c>
       <c r="O40" t="n">
-        <v>0.486392521</v>
+        <v>0.432793864</v>
       </c>
       <c r="P40" t="n">
-        <v>0.486277904</v>
+        <v>0.432490644</v>
       </c>
     </row>
     <row r="41">
@@ -50833,46 +50833,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4521448</v>
+        <v>0.201977509</v>
       </c>
       <c r="D41" t="n">
-        <v>0.452397462</v>
+        <v>0.20317755</v>
       </c>
       <c r="E41" t="n">
-        <v>0.45049315</v>
+        <v>0.20332899</v>
       </c>
       <c r="F41" t="n">
-        <v>0.446863808</v>
+        <v>0.201214875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.442742975</v>
+        <v>0.199452927</v>
       </c>
       <c r="H41" t="n">
-        <v>0.442003585</v>
+        <v>0.19921</v>
       </c>
       <c r="I41" t="n">
-        <v>0.440907539</v>
+        <v>0.199866006</v>
       </c>
       <c r="J41" t="n">
-        <v>0.43950452</v>
+        <v>0.199230918</v>
       </c>
       <c r="K41" t="n">
-        <v>0.439707908</v>
+        <v>0.1999098</v>
       </c>
       <c r="L41" t="n">
-        <v>0.437742597</v>
+        <v>0.199740995</v>
       </c>
       <c r="M41" t="n">
-        <v>0.435863582</v>
+        <v>0.199317912</v>
       </c>
       <c r="N41" t="n">
-        <v>0.429597119</v>
+        <v>0.199437162</v>
       </c>
       <c r="O41" t="n">
-        <v>0.432793864</v>
+        <v>0.19977539</v>
       </c>
       <c r="P41" t="n">
-        <v>0.432490644</v>
+        <v>0.200282877</v>
       </c>
     </row>
     <row r="42">
@@ -50883,46 +50883,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>0.201977509</v>
+        <v>0.437941468</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20317755</v>
+        <v>0.43794905</v>
       </c>
       <c r="E42" t="n">
-        <v>0.20332899</v>
+        <v>0.436702075</v>
       </c>
       <c r="F42" t="n">
-        <v>0.201214875</v>
+        <v>0.433154235</v>
       </c>
       <c r="G42" t="n">
-        <v>0.199452927</v>
+        <v>0.439379881</v>
       </c>
       <c r="H42" t="n">
-        <v>0.19921</v>
+        <v>0.428744348</v>
       </c>
       <c r="I42" t="n">
-        <v>0.199866006</v>
+        <v>0.430003563</v>
       </c>
       <c r="J42" t="n">
-        <v>0.199230918</v>
+        <v>0.425786196</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1999098</v>
+        <v>0.408515741</v>
       </c>
       <c r="L42" t="n">
-        <v>0.199740995</v>
+        <v>0.40325727</v>
       </c>
       <c r="M42" t="n">
-        <v>0.199317912</v>
+        <v>0.408123227</v>
       </c>
       <c r="N42" t="n">
-        <v>0.199437162</v>
+        <v>0.412352732</v>
       </c>
       <c r="O42" t="n">
-        <v>0.19977539</v>
+        <v>0.42366444</v>
       </c>
       <c r="P42" t="n">
-        <v>0.200282877</v>
+        <v>0.4219414</v>
       </c>
     </row>
     <row r="43">
@@ -50933,46 +50933,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>0.437941468</v>
+        <v>0.516741799</v>
       </c>
       <c r="D43" t="n">
-        <v>0.43794905</v>
+        <v>0.5112565</v>
       </c>
       <c r="E43" t="n">
-        <v>0.436702075</v>
+        <v>0.512634028</v>
       </c>
       <c r="F43" t="n">
-        <v>0.433154235</v>
+        <v>0.517595692</v>
       </c>
       <c r="G43" t="n">
-        <v>0.439379881</v>
+        <v>0.509821675</v>
       </c>
       <c r="H43" t="n">
-        <v>0.428744348</v>
+        <v>0.525929282</v>
       </c>
       <c r="I43" t="n">
-        <v>0.430003563</v>
+        <v>0.524050083</v>
       </c>
       <c r="J43" t="n">
-        <v>0.425786196</v>
+        <v>0.523389097</v>
       </c>
       <c r="K43" t="n">
-        <v>0.408515741</v>
+        <v>0.513824444</v>
       </c>
       <c r="L43" t="n">
-        <v>0.40325727</v>
+        <v>0.524878911</v>
       </c>
       <c r="M43" t="n">
-        <v>0.408123227</v>
+        <v>0.516756028</v>
       </c>
       <c r="N43" t="n">
-        <v>0.412352732</v>
+        <v>0.520269512</v>
       </c>
       <c r="O43" t="n">
-        <v>0.42366444</v>
+        <v>0.519025615</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4219414</v>
+        <v>0.518509766</v>
       </c>
     </row>
     <row r="44">
@@ -50982,48 +50982,20 @@
       <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.516741799</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5112565</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.512634028</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.517595692</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.509821675</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.525929282</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.524050083</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.523389097</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.513824444</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.524878911</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.516756028</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.520269512</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.519025615</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.518509766</v>
-      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -51032,20 +51004,48 @@
       <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
+      <c r="C45" t="n">
+        <v>0.62410632</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.624663452</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.611677012</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6203916</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.609899266</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.606239311</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.610706797</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.603013706</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.600080181</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.601579395</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.598312632</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.612167984</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.605053688</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.604823997</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -51055,46 +51055,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>0.62410632</v>
+        <v>0.295275969</v>
       </c>
       <c r="D46" t="n">
-        <v>0.624663452</v>
+        <v>0.289901948</v>
       </c>
       <c r="E46" t="n">
-        <v>0.611677012</v>
+        <v>0.289695013</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6203916</v>
+        <v>0.286243464</v>
       </c>
       <c r="G46" t="n">
-        <v>0.609899266</v>
+        <v>0.289408665</v>
       </c>
       <c r="H46" t="n">
-        <v>0.606239311</v>
+        <v>0.282418124</v>
       </c>
       <c r="I46" t="n">
-        <v>0.610706797</v>
+        <v>0.286813701</v>
       </c>
       <c r="J46" t="n">
-        <v>0.603013706</v>
+        <v>0.287609758</v>
       </c>
       <c r="K46" t="n">
-        <v>0.600080181</v>
+        <v>0.284970704</v>
       </c>
       <c r="L46" t="n">
-        <v>0.601579395</v>
+        <v>0.282698683</v>
       </c>
       <c r="M46" t="n">
-        <v>0.598312632</v>
+        <v>0.283384701</v>
       </c>
       <c r="N46" t="n">
-        <v>0.612167984</v>
+        <v>0.275718496</v>
       </c>
       <c r="O46" t="n">
-        <v>0.605053688</v>
+        <v>0.273938356</v>
       </c>
       <c r="P46" t="n">
-        <v>0.604823997</v>
+        <v>0.273850165</v>
       </c>
     </row>
     <row r="47">
@@ -51105,46 +51105,46 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295275969</v>
+        <v>0.319072901</v>
       </c>
       <c r="D47" t="n">
-        <v>0.289901948</v>
+        <v>0.316456505</v>
       </c>
       <c r="E47" t="n">
-        <v>0.289695013</v>
+        <v>0.311772385</v>
       </c>
       <c r="F47" t="n">
-        <v>0.286243464</v>
+        <v>0.315422992</v>
       </c>
       <c r="G47" t="n">
-        <v>0.289408665</v>
+        <v>0.312159507</v>
       </c>
       <c r="H47" t="n">
-        <v>0.282418124</v>
+        <v>0.307150247</v>
       </c>
       <c r="I47" t="n">
-        <v>0.286813701</v>
+        <v>0.302609005</v>
       </c>
       <c r="J47" t="n">
-        <v>0.287609758</v>
+        <v>0.298840136</v>
       </c>
       <c r="K47" t="n">
-        <v>0.284970704</v>
+        <v>0.294703952</v>
       </c>
       <c r="L47" t="n">
-        <v>0.282698683</v>
+        <v>0.290938946</v>
       </c>
       <c r="M47" t="n">
-        <v>0.283384701</v>
+        <v>0.286070645</v>
       </c>
       <c r="N47" t="n">
-        <v>0.275718496</v>
+        <v>0.284084251</v>
       </c>
       <c r="O47" t="n">
-        <v>0.273938356</v>
+        <v>0.282619176</v>
       </c>
       <c r="P47" t="n">
-        <v>0.273850165</v>
+        <v>0.282265065</v>
       </c>
     </row>
     <row r="48">
@@ -51154,48 +51154,20 @@
       <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.319072901</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.316456505</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.311772385</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.315422992</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.312159507</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.307150247</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.302609005</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.298840136</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.294703952</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.290938946</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.286070645</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.284084251</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.282619176</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.282265065</v>
-      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -51226,20 +51198,48 @@
       <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
+      <c r="C50" t="n">
+        <v>0.331119835</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.330253582</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.328652571</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.327137558</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.32555675</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.320893364</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.320183629</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.318744489</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.31695707</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.313646857</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.313401319</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.310211473</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.309640013</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.309395718</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -51249,46 +51249,46 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>0.331119835</v>
+        <v>0.464456665</v>
       </c>
       <c r="D51" t="n">
-        <v>0.330253582</v>
+        <v>0.460776198</v>
       </c>
       <c r="E51" t="n">
-        <v>0.328652571</v>
+        <v>0.466157145</v>
       </c>
       <c r="F51" t="n">
-        <v>0.327137558</v>
+        <v>0.467792496</v>
       </c>
       <c r="G51" t="n">
-        <v>0.32555675</v>
+        <v>0.466260672</v>
       </c>
       <c r="H51" t="n">
-        <v>0.320893364</v>
+        <v>0.458527193</v>
       </c>
       <c r="I51" t="n">
-        <v>0.320183629</v>
+        <v>0.446265681</v>
       </c>
       <c r="J51" t="n">
-        <v>0.318744489</v>
+        <v>0.441766606</v>
       </c>
       <c r="K51" t="n">
-        <v>0.31695707</v>
+        <v>0.442120033</v>
       </c>
       <c r="L51" t="n">
-        <v>0.313646857</v>
+        <v>0.448350883</v>
       </c>
       <c r="M51" t="n">
-        <v>0.313401319</v>
+        <v>0.464368328</v>
       </c>
       <c r="N51" t="n">
-        <v>0.310211473</v>
+        <v>0.469517135</v>
       </c>
       <c r="O51" t="n">
-        <v>0.309640013</v>
+        <v>0.466673615</v>
       </c>
       <c r="P51" t="n">
-        <v>0.309395718</v>
+        <v>0.466497689</v>
       </c>
     </row>
     <row r="52">
@@ -51299,46 +51299,46 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.464456665</v>
+        <v>0.516343667</v>
       </c>
       <c r="D52" t="n">
-        <v>0.460776198</v>
+        <v>0.516150078</v>
       </c>
       <c r="E52" t="n">
-        <v>0.466157145</v>
+        <v>0.516333842</v>
       </c>
       <c r="F52" t="n">
-        <v>0.467792496</v>
+        <v>0.516243571</v>
       </c>
       <c r="G52" t="n">
-        <v>0.466260672</v>
+        <v>0.517056655</v>
       </c>
       <c r="H52" t="n">
-        <v>0.458527193</v>
+        <v>0.510795255</v>
       </c>
       <c r="I52" t="n">
-        <v>0.446265681</v>
+        <v>0.513525798</v>
       </c>
       <c r="J52" t="n">
-        <v>0.441766606</v>
+        <v>0.511125859</v>
       </c>
       <c r="K52" t="n">
-        <v>0.442120033</v>
+        <v>0.499086161</v>
       </c>
       <c r="L52" t="n">
-        <v>0.448350883</v>
+        <v>0.512967715</v>
       </c>
       <c r="M52" t="n">
-        <v>0.464368328</v>
+        <v>0.503911878</v>
       </c>
       <c r="N52" t="n">
-        <v>0.469517135</v>
+        <v>0.51674408</v>
       </c>
       <c r="O52" t="n">
-        <v>0.466673615</v>
+        <v>0.513923667</v>
       </c>
       <c r="P52" t="n">
-        <v>0.466497689</v>
+        <v>0.514021193</v>
       </c>
     </row>
     <row r="53">
@@ -51348,48 +51348,20 @@
       <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.516343667</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.516150078</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.516333842</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.516243571</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.517056655</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.510795255</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.513525798</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.511125859</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.499086161</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.512967715</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.503911878</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.51674408</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.513923667</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.514021193</v>
-      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -51398,20 +51370,48 @@
       <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
+      <c r="C54" t="n">
+        <v>0.363840768</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.362206214</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.360949743</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.355191678</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.353892466</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.343966308</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.348839886</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.348333218</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.348057908</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.344974454</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.34610297</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.342003608</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.340658889</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.340596807</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -51421,46 +51421,46 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>0.363840768</v>
+        <v>0.48023087</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362206214</v>
+        <v>0.48116894</v>
       </c>
       <c r="E55" t="n">
-        <v>0.360949743</v>
+        <v>0.484334381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.355191678</v>
+        <v>0.482957272</v>
       </c>
       <c r="G55" t="n">
-        <v>0.353892466</v>
+        <v>0.478164377</v>
       </c>
       <c r="H55" t="n">
-        <v>0.343966308</v>
+        <v>0.47964897</v>
       </c>
       <c r="I55" t="n">
-        <v>0.348839886</v>
+        <v>0.480433392</v>
       </c>
       <c r="J55" t="n">
-        <v>0.348333218</v>
+        <v>0.490522825</v>
       </c>
       <c r="K55" t="n">
-        <v>0.348057908</v>
+        <v>0.491964654</v>
       </c>
       <c r="L55" t="n">
-        <v>0.344974454</v>
+        <v>0.495355181</v>
       </c>
       <c r="M55" t="n">
-        <v>0.34610297</v>
+        <v>0.491695198</v>
       </c>
       <c r="N55" t="n">
-        <v>0.342003608</v>
+        <v>0.489232922</v>
       </c>
       <c r="O55" t="n">
-        <v>0.340658889</v>
+        <v>0.48647317</v>
       </c>
       <c r="P55" t="n">
-        <v>0.340596807</v>
+        <v>0.486123816</v>
       </c>
     </row>
     <row r="56">
@@ -59043,46 +59043,46 @@
         <v>473</v>
       </c>
       <c r="C236" t="n">
-        <v>0.35465985</v>
+        <v>0.196023441</v>
       </c>
       <c r="D236" t="n">
-        <v>0.342286138</v>
+        <v>0.200650072</v>
       </c>
       <c r="E236" t="n">
-        <v>0.33097132</v>
+        <v>0.204600399</v>
       </c>
       <c r="F236" t="n">
-        <v>0.334643338</v>
+        <v>0.208888921</v>
       </c>
       <c r="G236" t="n">
-        <v>0.32882783</v>
+        <v>0.204834</v>
       </c>
       <c r="H236" t="n">
-        <v>0.325734391</v>
+        <v>0.203959352</v>
       </c>
       <c r="I236" t="n">
-        <v>0.32388902</v>
+        <v>0.203344406</v>
       </c>
       <c r="J236" t="n">
-        <v>0.323946912</v>
+        <v>0.20077969</v>
       </c>
       <c r="K236" t="n">
-        <v>0.321250113</v>
+        <v>0.200287936</v>
       </c>
       <c r="L236" t="n">
-        <v>0.318258515</v>
+        <v>0.195632421</v>
       </c>
       <c r="M236" t="n">
-        <v>0.321147779</v>
+        <v>0.196589017</v>
       </c>
       <c r="N236" t="n">
-        <v>0.322337911</v>
+        <v>0.199161944</v>
       </c>
       <c r="O236" t="n">
-        <v>0.31827604</v>
+        <v>0.203062672</v>
       </c>
       <c r="P236" t="n">
-        <v>0.318220763</v>
+        <v>0.203492819</v>
       </c>
     </row>
     <row r="237">
@@ -59093,46 +59093,46 @@
         <v>475</v>
       </c>
       <c r="C237" t="n">
-        <v>0.196023441</v>
+        <v>0.35465985</v>
       </c>
       <c r="D237" t="n">
-        <v>0.200650072</v>
+        <v>0.342286138</v>
       </c>
       <c r="E237" t="n">
-        <v>0.204600399</v>
+        <v>0.33097132</v>
       </c>
       <c r="F237" t="n">
-        <v>0.208888921</v>
+        <v>0.334643338</v>
       </c>
       <c r="G237" t="n">
-        <v>0.204834</v>
+        <v>0.32882783</v>
       </c>
       <c r="H237" t="n">
-        <v>0.203959352</v>
+        <v>0.325734391</v>
       </c>
       <c r="I237" t="n">
-        <v>0.203344406</v>
+        <v>0.32388902</v>
       </c>
       <c r="J237" t="n">
-        <v>0.20077969</v>
+        <v>0.323946912</v>
       </c>
       <c r="K237" t="n">
-        <v>0.200287936</v>
+        <v>0.321250113</v>
       </c>
       <c r="L237" t="n">
-        <v>0.195632421</v>
+        <v>0.318258515</v>
       </c>
       <c r="M237" t="n">
-        <v>0.196589017</v>
+        <v>0.321147779</v>
       </c>
       <c r="N237" t="n">
-        <v>0.199161944</v>
+        <v>0.322337911</v>
       </c>
       <c r="O237" t="n">
-        <v>0.203062672</v>
+        <v>0.31827604</v>
       </c>
       <c r="P237" t="n">
-        <v>0.203492819</v>
+        <v>0.318220763</v>
       </c>
     </row>
     <row r="238">

--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 65</t>
+    <t xml:space="preserve">Source: 66</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 6</t>

--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 66</t>
+    <t xml:space="preserve">Source: 68</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 6</t>

--- a/user-data/climate-vulnerability/climate-vulnerability.xlsx
+++ b/user-data/climate-vulnerability/climate-vulnerability.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 65</t>
+    <t xml:space="preserve">Source: 68</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 6</t>
